--- a/assets/documents/Controle de relatórios de campo.xlsx
+++ b/assets/documents/Controle de relatórios de campo.xlsx
@@ -1,53 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29819"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/69f616c988c69463/Acervo/dev/projects/presentation/assets/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Área de Trabalho\Apresentação Reunião 25-02-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{6B1E7450-3368-4F6E-B777-52E0AFD407CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23412A95-9091-4048-8674-0FD6D0CCF638}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5A51A9D2-CCA3-4592-883D-03B2345FE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409D8606-FB0D-449B-9EB2-8A5ABF238456}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="5" state="hidden" r:id="rId1"/>
     <sheet name="RDC" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId3"/>
+    <pivotCache cacheId="123" r:id="rId3"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="99">
-  <si>
-    <t>Equipe Envolvida</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t>1379-RDC-2825-60-08-031-R00</t>
-  </si>
-  <si>
-    <t>Estrutura</t>
-  </si>
-  <si>
-    <t>TORRE 21/1</t>
-  </si>
-  <si>
-    <t>TORRE 19/1</t>
-  </si>
-  <si>
-    <t>TORRE 17/1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="116">
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contagem de Empresa </t>
+  </si>
+  <si>
+    <t>Concluida</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                   CONTROLE DO RELATÓRIO DE CAMPO: ATIVIDADES CONCLUIDAS E PENDENTES REGISTRADAS.</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Nº do RDC</t>
+  </si>
+  <si>
+    <t>Data
+ de 
+Elaboração</t>
   </si>
   <si>
     <t>Data
@@ -55,6 +82,9 @@
  Conclusão</t>
   </si>
   <si>
+    <t>Estrutura</t>
+  </si>
+  <si>
     <t>Atividade
  Executada</t>
   </si>
@@ -63,9 +93,24 @@
 Responsável</t>
   </si>
   <si>
-    <t>Data
- de 
-Elaboração</t>
+    <t>Equipe Envolvida</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>1379-RDC-2825-60-08-033-R00</t>
+  </si>
+  <si>
+    <t>TORRE 17/1</t>
+  </si>
+  <si>
+    <t>Aplicação de veneno de formiga
+ ao redor da torre, retirada da vegetação
+ generalizada nas proximidades da torre.</t>
   </si>
   <si>
     <t>CMT</t>
@@ -75,9 +120,6 @@
  Leandro,Francinaldo,Carlos André e Jackson.</t>
   </si>
   <si>
-    <t>Concluida</t>
-  </si>
-  <si>
     <t>Atividade concluida com 
 êxito, sem nenhuma anormalidade.</t>
   </si>
@@ -85,13 +127,37 @@
     <t>TORRE 17/2</t>
   </si>
   <si>
+    <t xml:space="preserve"> Retirada da vegetação
+ generalizada nas proximidades da torre.</t>
+  </si>
+  <si>
     <t>Charly, Francinaldo,Carlos André e Jackson.</t>
   </si>
   <si>
-    <t>1379-RDC-2825-60-08-033-R00</t>
+    <t>TORRE 16/2</t>
+  </si>
+  <si>
+    <t>TORRE 16/1</t>
+  </si>
+  <si>
+    <t>TORRE 15/2</t>
+  </si>
+  <si>
+    <t>TORRE 15/1</t>
+  </si>
+  <si>
+    <t>1379-RDC-2825-60-08-031-R00</t>
+  </si>
+  <si>
+    <t>TORRE 19/1</t>
   </si>
   <si>
     <t>TORRE 19/2</t>
+  </si>
+  <si>
+    <t>Realizado tratamento na ferragem e pintura
+ da haste D, retirada da vegetação
+ generalizada nas proximidades da torre.</t>
   </si>
   <si>
     <t>durante a inspeção, verificou-se a inexistência
@@ -101,6 +167,18 @@
   </si>
   <si>
     <t>TORRE 18/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Executar a substituição ou a recuperação do encapsulamento danificado
+ no estai D da estrutura 18/1.</t>
+  </si>
+  <si>
+    <t>Conforme alinhamento prévio com a equipe do CPISF, informamos que está sendo programada a execução de manutenção corretiva e preventiva referente a esta atividade.</t>
+  </si>
+  <si>
+    <t>Realizado tratamento na ferragem e pintura
+ das haste B e D, feito a aplicação de veneno de formiga ao redorr da torre, retirada da vegetação
+ generalizada nas proximidades da torre.</t>
   </si>
   <si>
     <t>Visando ao cumprimento das demandas previstas
@@ -116,150 +194,34 @@
  integralmente às referidas demandas.</t>
   </si>
   <si>
-    <t>Realizado tratamento na ferragem e pintura
- da haste D, retirada da vegetação
- generalizada nas proximidades da torre.</t>
-  </si>
-  <si>
-    <t>TORRE 16/2</t>
-  </si>
-  <si>
-    <t>TORRE 16/1</t>
-  </si>
-  <si>
-    <t>TORRE 15/2</t>
-  </si>
-  <si>
-    <t>TORRE 15/1</t>
-  </si>
-  <si>
-    <t>N°</t>
+    <t>TORRE 18/2</t>
+  </si>
+  <si>
+    <t>Sem anormalidade.</t>
   </si>
   <si>
     <t>Cicero,Luiz e Leandro.</t>
   </si>
   <si>
+    <t>sem anormalidade.</t>
+  </si>
+  <si>
     <t>TORRE 20/1</t>
   </si>
   <si>
     <t>Realizado tratamento na ferragem e pintura.</t>
   </si>
   <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>1379-RDC-2825-60-08-041-R00</t>
-  </si>
-  <si>
     <t>TORRE 20/2</t>
   </si>
   <si>
-    <t>TORRE 18/2</t>
-  </si>
-  <si>
-    <t>sem anormalidade.</t>
-  </si>
-  <si>
-    <t>Sem anormalidade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizado a manutenção corretiva da drenagem no entorno da torre, como também a retirada da vegetação regenerada entorno da torre. Atividade concluida com êxito.  </t>
-  </si>
-  <si>
-    <t>TORRE 22/2</t>
-  </si>
-  <si>
-    <t>TORRE 23/1</t>
-  </si>
-  <si>
-    <t>TORRE 23/2</t>
-  </si>
-  <si>
-    <t>Realizado a correção com reaterro e compactamento do solo, realizado a correção de verticalidade.</t>
-  </si>
-  <si>
-    <t>Realizado a aplicação de formicida para elimimnação da colonia de formigas existentes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplicação concluida com êxito. </t>
-  </si>
-  <si>
-    <t>1379-RDC-2825-60-08-042-R00</t>
-  </si>
-  <si>
-    <t>TORRE 24/1</t>
-  </si>
-  <si>
-    <t>TORRE 24/2</t>
-  </si>
-  <si>
-    <t>TORRE 25/1</t>
-  </si>
-  <si>
-    <t>TORRE 25/2</t>
-  </si>
-  <si>
-    <t>Realizado a remoção da vegetação regenerada, e a correção da verticalidade.</t>
-  </si>
-  <si>
-    <t>1379-RDC-2825-60-08-043-R00</t>
-  </si>
-  <si>
-    <t>Realizado a manutenção corretivas das perfurações no concreto. Realizado a aplicação de formicida para eliminação da colônia de formigas existentes.</t>
-  </si>
-  <si>
-    <t>TORRE 26/1</t>
-  </si>
-  <si>
-    <t>TORRE 26/2</t>
-  </si>
-  <si>
-    <t>Tratamento de oxidação e recuperação do concreto das bases B,C e D da torre.</t>
-  </si>
-  <si>
-    <t>Realizado a remoção da vegetação, recuperação da base de concreto  e a correção da verticalidade.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizado a o tratamento de ferrugem e restauração de pintura  dos estais C.                                                                                                                               </t>
-  </si>
-  <si>
-    <t>Nº do RDC</t>
-  </si>
-  <si>
-    <t>I. Conforme documentos 1379-REL-2820-60-08-001-R00 e 1379-NTC-2820-60-08-001-R01 entre outros documentos, devido a falha construtiva, estamos realizando manutenção no estai com a aplicação bloco pré-moldado.                                               II. Conforme documentos 1379-REL-2820-60-08-001-R00 e 1379-NTC-2820-60-08-001-R01 entre outros documentos, devido a falha construtiva, estamos realizando manutenção no estai com a aplicação bloco pré-moldado.</t>
+    <t>TORRE 21/1</t>
   </si>
   <si>
     <t xml:space="preserve">Reposicionado o amortecedor </t>
   </si>
   <si>
-    <t>Rótulos de Linha</t>
-  </si>
-  <si>
-    <t>(vazio)</t>
-  </si>
-  <si>
-    <t>Total Geral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contagem de Empresa </t>
-  </si>
-  <si>
-    <t>1379-RDC-2825-60-08-051-R00</t>
-  </si>
-  <si>
-    <t>TORRE 34/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aplicar anticorrosivo na haste do cabo, estai C.</t>
-  </si>
-  <si>
-    <t>TORRE 35/1</t>
-  </si>
-  <si>
-    <t>TORRE 35/2</t>
-  </si>
-  <si>
-    <t>TORRE 35/3</t>
+    <t>Cicero,Luiz,Leandro e Luiz Carlos.</t>
   </si>
   <si>
     <t xml:space="preserve"> Durante o desligamento programado realizado 14/10/2025, para a reconexão das derivações do vão
@@ -268,36 +230,83 @@
 estabelecidos. Não foram identificadas anormalidades durante ou após a execução do serviço.</t>
   </si>
   <si>
-    <t>Cicero,Luiz,Leandro e Luiz Carlos.</t>
-  </si>
-  <si>
-    <t>Reposicionamento do amortecedor de vibração face A</t>
-  </si>
-  <si>
-    <t>Após inspeções realizadas pela equipe de campo da CMT Engenharia, foi constatada a necessidade de
-reposicionamento do amortecedor de vibração na torre 35-3, localizada no trecho entre a SE-E4 e a
-SE-E6. Durante o desligamento programado realizado dia  14/10/2025 , para a reconexão das derivações do vão
-AY da SE-E3, foi executado o referido reposicionamento. inicio as 14:30 com termino as 15:37.
-A atividade foi concluída com êxito, seguindo todos os procedimentos de segurança e qualidade
-estabelecidos. Não foram identificadas anormalidades durante ou após a execução do serviço.</t>
-  </si>
-  <si>
-    <t>isoladores dos cabos de condução apresentam inclinação para um dos lados sendo mais acentuada no isolador do condutor central.</t>
-  </si>
-  <si>
-    <t>Será programada uma data, em conjunto com a equipe de topografia e o corpo técnico do CPISF, para avaliar a melhor metodologia de centralização dos isoladores da torre autoportante.</t>
-  </si>
-  <si>
-    <t>Realizado tratamento na ferragem e pintura
- das haste B e D, feito a aplicação de veneno de formiga ao redorr da torre, retirada da vegetação
- generalizada nas proximidades da torre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Executar a substituição ou a recuperação do encapsulamento danificado
- no estai D da estrutura 18/1.</t>
-  </si>
-  <si>
-    <t>pendente</t>
+    <t>1379-RDC-2825-60-08-041-R00</t>
+  </si>
+  <si>
+    <t>TORRE 22/2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizado a manutenção corretiva da drenagem no entorno da torre, como também a retirada da vegetação regenerada entorno da torre. Atividade concluida com êxito.  </t>
+  </si>
+  <si>
+    <t>TORRE 23/1</t>
+  </si>
+  <si>
+    <t>Realizado a correção com reaterro e compactamento do solo, realizado a correção de verticalidade.</t>
+  </si>
+  <si>
+    <t>TORRE 23/2</t>
+  </si>
+  <si>
+    <t>Realizado a aplicação de formicida para elimimnação da colonia de formigas existentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplicação concluida com êxito. </t>
+  </si>
+  <si>
+    <t>1379-RDC-2825-60-08-042-R00</t>
+  </si>
+  <si>
+    <t>TORRE 24/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizado a o tratamento de ferrugem e restauração de pintura  dos estais C.                                                                                                                               </t>
+  </si>
+  <si>
+    <t>I. Conforme documentos 1379-REL-2820-60-08-001-R00 e 1379-NTC-2820-60-08-001-R01 entre outros documentos, devido a falha construtiva, estamos realizando manutenção no estai com a aplicação bloco pré-moldado.                                               II. Conforme documentos 1379-REL-2820-60-08-001-R00 e 1379-NTC-2820-60-08-001-R01 entre outros documentos, devido a falha construtiva, estamos realizando manutenção no estai com a aplicação bloco pré-moldado.</t>
+  </si>
+  <si>
+    <t>TORRE 24/2</t>
+  </si>
+  <si>
+    <t>TORRE 25/1</t>
+  </si>
+  <si>
+    <t>Realizado a remoção da vegetação regenerada, e a correção da verticalidade.</t>
+  </si>
+  <si>
+    <t>1379-RDC-2825-60-08-043-R00</t>
+  </si>
+  <si>
+    <t>TORRE 25/2</t>
+  </si>
+  <si>
+    <t>Realizado a manutenção corretivas das perfurações no concreto. Realizado a aplicação de formicida para eliminação da colônia de formigas existentes.</t>
+  </si>
+  <si>
+    <t>TORRE 26/1</t>
+  </si>
+  <si>
+    <t>Tratamento de oxidação e recuperação do concreto das bases B,C e D da torre.</t>
+  </si>
+  <si>
+    <t>TORRE 26/2</t>
+  </si>
+  <si>
+    <t>Realizado a remoção da vegetação, recuperação da base de concreto  e a correção da verticalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tubo de proteção comprometido
+ Estai B: O tubo de proteção está danificado e parcialmente desintegrado,
+ com material de vedação visivelmente comprometido.
+ Estai C: A integridade do tubo de proteção também foi comprometida, com
+ fissuras evidentes e risco de degradação do suporte estrutural.</t>
+  </si>
+  <si>
+    <t>1379-RDC-2825-60-08-051-R00</t>
+  </si>
+  <si>
+    <t>TORRE 34/2</t>
   </si>
   <si>
     <t xml:space="preserve"> Foram observados os seguintes pontos em relação aos estais A, C e D:
@@ -313,46 +322,60 @@
  prevenindo a corrosão e aumentando a durabilidade da estrutura.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Tubo de proteção comprometido
- Estai B: O tubo de proteção está danificado e parcialmente desintegrado,
- com material de vedação visivelmente comprometido.
- Estai C: A integridade do tubo de proteção também foi comprometida, com
- fissuras evidentes e risco de degradação do suporte estrutural.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                   CONTROLE DO RELATÓRIO DE CAMPO: ATIVIDADES CONCLUIDAS E PENDENTES REGISTRADAS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Retirada da vegetação
- generalizada nas proximidades da torre.</t>
-  </si>
-  <si>
-    <t>Aplicação de veneno de formiga
- ao redor da torre, retirada da vegetação
- generalizada nas proximidades da torre.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t xml:space="preserve"> Aplicar anticorrosivo na haste do cabo, estai C.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Aplicação do anticorrosivo, foi feita  antes da entrega desse RDC. </t>
   </si>
   <si>
+    <t>TORRE 35/1</t>
+  </si>
+  <si>
+    <t>isoladores dos cabos de condução apresentam inclinação para um dos lados sendo mais acentuada no isolador do condutor central.</t>
+  </si>
+  <si>
+    <t>Será programada uma data, em conjunto com a equipe de topografia e o corpo técnico do CPISF, para avaliar a melhor metodologia de centralização dos isoladores da torre autoportante.</t>
+  </si>
+  <si>
+    <t>TORRE 35/2</t>
+  </si>
+  <si>
     <t>Realizado a aplicação de formicida para eliminação da colonia de formigas existentes.</t>
   </si>
   <si>
+    <t>TORRE 35/3</t>
+  </si>
+  <si>
+    <t>Reposicionamento do amortecedor de vibração face A</t>
+  </si>
+  <si>
+    <t>Após inspeções realizadas pela equipe de campo da CMT Engenharia, foi constatada a necessidade de
+reposicionamento do amortecedor de vibração na torre 35-3, localizada no trecho entre a SE-E4 e a
+SE-E6. Durante o desligamento programado realizado dia  14/10/2025 , para a reconexão das derivações do vão
+AY da SE-E3, foi executado o referido reposicionamento. inicio as 14:30 com termino as 15:37.
+A atividade foi concluída com êxito, seguindo todos os procedimentos de segurança e qualidade
+estabelecidos. Não foram identificadas anormalidades durante ou após a execução do serviço.</t>
+  </si>
+  <si>
     <t>1379-RDC-2825-60-08-065-R00</t>
   </si>
   <si>
     <t>TORRE 47-2</t>
-  </si>
-  <si>
-    <t>Cicero, Luiz e Lenadro</t>
   </si>
   <si>
     <t xml:space="preserve"> Recomenda-se a reposição da placa de identificação superior da
 Estruturas 47/2, de forma a restabelecer a conformidade com o
 padrão de sinalização previsto em projeto.</t>
+  </si>
+  <si>
+    <t>Cicero, Luiz e Lenadro</t>
+  </si>
+  <si>
+    <t>As placas foram confeccionadas no canteiro de obras e encontram-se prontas para instalação.
+A data para instalação nas torres da LT será definida e programada em conjunto com a equipe do CPISF.</t>
   </si>
   <si>
     <t>TORRE 49-2</t>
@@ -379,18 +402,87 @@
 estrutura.</t>
   </si>
   <si>
-    <t>Conforme alinhamento prévio com a equipe do CPISF, informamos que está sendo programada a execução de manutenção corretiva e preventiva referente a esta atividade.</t>
-  </si>
-  <si>
-    <t>As placas foram confeccionadas no canteiro de obras e encontram-se prontas para instalação.
-A data para instalação nas torres da LT será definida e programada em conjunto com a equipe do CPISF.</t>
+    <t xml:space="preserve">Aguardando as orientações do CPISF para definir o método e dar prosseguimento à atividade. </t>
+  </si>
+  <si>
+    <t>1379-RDC-2834-60-08-010-R00</t>
+  </si>
+  <si>
+    <t>001/163 e 002/163</t>
+  </si>
+  <si>
+    <t>. Rompimento da Fibra Óptica entre as Estruturas 001/163 e 002/163:
+Durante a inspeção, foi constatado que a fibra óptica que interliga as
+estruturas 001/163 e 002/163 encontra-se rompida, no trecho
+correspondente às coordenadas 24L 674376.74 m E / 9102701.30 m S e
+24L 674527.74 m E / 9102731.90 m S. O dano parece ser resultado de
+queimadas realizadas nas proximidades, possivelmente por pessoas da
+localidade. Essas pessoas, após cortarem a madeira — algo que pode ser
+indicado pela análise de cortes feitos com motosserra — e levarem os
+troncos, queimaram os galhos e os vestígios de madeira dentro do domínio
+do PISF. Não foi possível determinar a finalidade do ato, mas o incêndio
+provocou o rompimento da fibra, comprometendo a continuidade da linha de
+comunicação.</t>
+  </si>
+  <si>
+    <t>Nos postes 001/163 e 002/163, foi constatada a presença de fibra rompida no vão. Procedeu-se à retirada do material danificado e à realização de inspeção geral na Linha de Distribuição de 13,8 kV, não sendo identificadas outras anomalias.</t>
+  </si>
+  <si>
+    <t>006/163 e 007/163</t>
+  </si>
+  <si>
+    <t>Baixa Altura da Fibra Óptica entre as Estruturas 006/163 e 007/163:
+No ponto correspondente às coordenadas: 24L 675158 9102846, próximo à
+estrutura (poste) 007/163, foi identificado que o cabo de fibra óptica se
+encontra a uma altura de aproximadamente 2,5 metros do chão, devido a
+uma elevação de terra no local. Essa proximidade ao solo aumenta o risco
+de danos à fibra óptica, especialmente em caso de futuras queimadas na
+região. Caso a vegetação seja novamente incendiada, há possibilidade de
+comprometimento da integridade do cabo, devido à sua baixa posição em
+relação ao solo e à alta vulnerabilidade provocada pelas queimadas.</t>
+  </si>
+  <si>
+    <t>Quanto à altura da fibra, nas proximidades da estrutura 007/163, após alinhamento com o Eng. Emanuelison, foi esclarecido que a condição observada decorre das características do terreno, encontrando-se dentro da normalidade.</t>
+  </si>
+  <si>
+    <t>001/164 e 002/164</t>
+  </si>
+  <si>
+    <t>Marcas de Calor na Fibra Óptica em Vários Pontos:
+Foi identificado que em alguns pontos da fibra óptica, especialmente entre
+as estruturas 001/164 e 002/164, há marcas visíveis causadas pelo calor,
+provavelmente resultantes das queimadas ocorridas nas proximidades.
+Essas marcas indicam que a fibra óptica foi exposta a temperaturas elevadas, o que pode comprometer sua integridade e
+funcionalidade.</t>
+  </si>
+  <si>
+    <t>Ação tomada.</t>
+  </si>
+  <si>
+    <t>002/165</t>
+  </si>
+  <si>
+    <t>Estrutura 002/165 – Fratura: 002/165, evidenciada
+pelo desvio significativo da vertical. Além disso, foi observada uma fratura no poste.</t>
+  </si>
+  <si>
+    <t>Foi realizado o reparo na estrutura 002/165, conforme solicitado na observação referente à fratura com deformação angular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi observado uma deformação angular na estrutura pelo desvio significativo da vertical. </t>
+  </si>
+  <si>
+    <t>pendente</t>
+  </si>
+  <si>
+    <t>Será realizado uma inspeção mais detalhada, podendo haver a necessidade de apoio da equipe de topografia do CPISF para a execução da atividade.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,7 +507,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,7 +534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF7474"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -591,8 +695,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -615,26 +717,107 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
@@ -644,13 +827,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -838,19 +1023,19 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <right style="thin">
           <color auto="1"/>
         </right>
         <top style="thin">
           <color auto="1"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -909,7 +1094,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -920,7 +1105,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[CONTROLE DO RETATÓRIO DE CAMPO ATIVIDADES CONCLUIDAS E PENDENTES REGISTRADAS. (ATUALIZADA).xlsx]Planilha2!Tabela dinâmica2</c:name>
+    <c:name>[Controle de relatórios de campo.xlsx]Planilha2!Tabela dinâmica2</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -1242,6 +1427,20 @@
           <a:effectLst/>
         </c:spPr>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -1321,6 +1520,26 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-2DA7-4E0F-9AE3-6C29B130E52F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -1362,32 +1581,38 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha2!$A$4:$A$7</c:f>
+              <c:f>Planilha2!$A$4:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>Concluida</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>pendente</c:v>
+                  <c:v>Pendente</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>(vazio)</c:v>
+                  <c:v>(blank)</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Em andamento</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha2!$B$4:$B$7</c:f>
+              <c:f>Planilha2!$B$4:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2073,7 +2298,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>147774</xdr:rowOff>
+      <xdr:rowOff>145869</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2164,27 +2389,23 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Daniel Carvalho" refreshedDate="46078.335621527774" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="35" xr:uid="{3C5178B2-6A6A-4283-A2D5-6FDAE0FD8710}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Excel Services" refreshedDate="46078.617230324075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{3C5178B2-6A6A-4283-A2D5-6FDAE0FD8710}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
   <cacheFields count="10">
     <cacheField name="N°" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="34"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="37"/>
     </cacheField>
     <cacheField name="Nº do RDC" numFmtId="0">
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Data_x000a_ de _x000a_Elaboração" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-07-31T00:00:00" maxDate="2025-11-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-07-31T00:00:00" maxDate="2026-01-30T00:00:00"/>
     </cacheField>
     <cacheField name="Data_x000a_ de_x000a_ Conclusão" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-09-23T00:00:00" maxDate="2025-10-25T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2025-09-23T00:00:00" maxDate="2026-02-05T00:00:00"/>
     </cacheField>
     <cacheField name="Estrutura" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2199,10 +2420,11 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Status" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <m/>
         <s v="Concluida"/>
-        <s v="pendente"/>
+        <s v="Em andamento"/>
+        <s v="Pendente"/>
         <s v="Pendente " u="1"/>
         <s v="Pedente" u="1"/>
       </sharedItems>
@@ -2220,7 +2442,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="35">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="38">
   <r>
     <m/>
     <m/>
@@ -2554,7 +2776,7 @@
     <s v="isoladores dos cabos de condução apresentam inclinação para um dos lados sendo mais acentuada no isolador do condutor central."/>
     <s v="CMT"/>
     <m/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="Será programada uma data, em conjunto com a equipe de topografia e o corpo técnico do CPISF, para avaliar a melhor metodologia de centralização dos isoladores da torre autoportante."/>
   </r>
   <r>
@@ -2590,7 +2812,7 @@
     <s v=" Recomenda-se a reposição da placa de identificação superior da_x000a_Estruturas 47/2, de forma a restabelecer a conformidade com o_x000a_padrão de sinalização previsto em projeto."/>
     <s v="CMT"/>
     <s v="Cicero, Luiz e Lenadro"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="As placas foram confeccionadas no canteiro de obras e encontram-se prontas para instalação._x000a__x000a_A data para instalação nas torres da LT será definida e programada em conjunto com a equipe do CPISF."/>
   </r>
   <r>
@@ -2602,7 +2824,7 @@
     <s v=" Recomenda-se a reposição da placa de identificação superior da_x000a_Estruturas 49/1, de forma a restabelecer a conformidade com o_x000a_padrão de sinalização previsto em projeto."/>
     <s v="CMT"/>
     <s v="Cicero, Luiz e Lenadro"/>
-    <x v="2"/>
+    <x v="3"/>
     <s v="As placas foram confeccionadas no canteiro de obras e encontram-se prontas para instalação._x000a__x000a_A data para instalação nas torres da LT será definida e programada em conjunto com a equipe do CPISF."/>
   </r>
   <r>
@@ -2615,38 +2837,74 @@
     <s v="CMT"/>
     <s v="Cicero, Luiz e Lenadro"/>
     <x v="2"/>
-    <s v="Conforme alinhamento prévio com a equipe do CPISF, informamos que está sendo programada a execução de manutenção corretiva e preventiva referente a esta atividade."/>
+    <s v="Aguardando as orientações do CPISF para definir o método e dar prosseguimento à atividade. "/>
   </r>
   <r>
     <n v="33"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
+    <s v="1379-RDC-2834-60-08-010-R00"/>
+    <d v="2026-01-29T00:00:00"/>
+    <d v="2026-01-28T00:00:00"/>
+    <s v="001/163 e 002/163"/>
+    <s v=". Rompimento da Fibra Óptica entre as Estruturas 001/163 e 002/163:_x000a_Durante a inspeção, foi constatado que a fibra óptica que interliga as_x000a_estruturas 001/163 e 002/163 encontra-se rompida, no trecho_x000a_correspondente às coordenadas 24L 674376.74 m E / 9102701.30 m S e_x000a_24L 674527.74 m E / 9102731.90 m S. O dano parece ser resultado de_x000a_queimadas realizadas nas proximidades, possivelmente por pessoas da_x000a_localidade. Essas pessoas, após cortarem a madeira — algo que pode ser_x000a_indicado pela análise de cortes feitos com motosserra — e levarem os_x000a_troncos, queimaram os galhos e os vestígios de madeira dentro do domínio_x000a_do PISF. Não foi possível determinar a finalidade do ato, mas o incêndio_x000a_provocou o rompimento da fibra, comprometendo a continuidade da linha de_x000a_comunicação."/>
+    <s v="CMT"/>
+    <s v="Cicero, Luiz e Lenadro"/>
+    <x v="1"/>
+    <s v="Nos postes 001/163 e 002/163, foi constatada a presença de fibra rompida no vão. Procedeu-se à retirada do material danificado e à realização de inspeção geral na Linha de Distribuição de 13,8 kV, não sendo identificadas outras anomalias."/>
   </r>
   <r>
     <n v="34"/>
+    <s v="1379-RDC-2834-60-08-010-R00"/>
+    <d v="2026-01-29T00:00:00"/>
+    <d v="2026-01-28T00:00:00"/>
+    <s v="006/163 e 007/163"/>
+    <s v="Baixa Altura da Fibra Óptica entre as Estruturas 006/163 e 007/163:_x000a_No ponto correspondente às coordenadas: 24L 675158 9102846, próximo à_x000a_estrutura (poste) 007/163, foi identificado que o cabo de fibra óptica se_x000a_encontra a uma altura de aproximadamente 2,5 metros do chão, devido a_x000a_uma elevação de terra no local. Essa proximidade ao solo aumenta o risco_x000a_de danos à fibra óptica, especialmente em caso de futuras queimadas na_x000a_região. Caso a vegetação seja novamente incendiada, há possibilidade de_x000a_comprometimento da integridade do cabo, devido à sua baixa posição em_x000a_relação ao solo e à alta vulnerabilidade provocada pelas queimadas."/>
+    <s v="CMT"/>
     <m/>
+    <x v="1"/>
+    <s v="Quanto à altura da fibra, nas proximidades da estrutura 007/163, após alinhamento com o Eng. Emanuelison, foi esclarecido que a condição observada decorre das características do terreno, encontrando-se dentro da normalidade."/>
+  </r>
+  <r>
+    <n v="35"/>
+    <s v="1379-RDC-2834-60-08-010-R00"/>
+    <d v="2026-01-29T00:00:00"/>
+    <d v="2026-01-28T00:00:00"/>
+    <s v="001/164 e 002/164"/>
+    <s v="Marcas de Calor na Fibra Óptica em Vários Pontos:_x000a_Foi identificado que em alguns pontos da fibra óptica, especialmente entre_x000a_as estruturas 001/164 e 002/164, há marcas visíveis causadas pelo calor,_x000a_provavelmente resultantes das queimadas ocorridas nas proximidades._x000a_Essas marcas indicam que a fibra óptica foi exposta a temperaturas elevadas, o que pode comprometer sua integridade e_x000a_funcionalidade."/>
+    <s v="CMT"/>
+    <s v="Cicero, Luiz e Lenadro"/>
+    <x v="1"/>
+    <s v="Ação tomada."/>
+  </r>
+  <r>
+    <n v="36"/>
+    <s v="1379-RDC-2834-60-08-010-R00"/>
+    <d v="2026-01-29T00:00:00"/>
+    <d v="2026-02-04T00:00:00"/>
+    <s v="002/165"/>
+    <s v="Estrutura 002/165 – Fratura: 002/165, evidenciada_x000a_pelo desvio significativo da vertical. Além disso, foi observada uma fratura no poste."/>
+    <s v="CMT"/>
+    <s v="Cicero, Charly, Luiz,_x000a_ Leandro,Francinaldo,Carlos André e Jackson."/>
+    <x v="1"/>
+    <s v="Foi realizado o reparo na estrutura 002/165, conforme solicitado na observação referente à fratura com deformação angular."/>
+  </r>
+  <r>
+    <n v="37"/>
+    <s v="1379-RDC-2834-60-08-010-R00"/>
+    <d v="2026-01-29T00:00:00"/>
     <m/>
+    <s v="002/165"/>
+    <s v="Foi observado uma deformação angular na estrutura pelo desvio significativo da vertical. "/>
+    <s v="CMT"/>
     <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <m/>
+    <x v="3"/>
+    <s v="Será realizado uma inspeção mais detalhada, podendo haver a necessidade de apoio da equipe de topografia do CPISF para a execução da atividade."/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2EDEC7-BA6B-4760-A9D2-9A811729C344}" name="Tabela dinâmica2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2EDEC7-BA6B-4760-A9D2-9A811729C344}" name="Tabela dinâmica2" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -2657,12 +2915,13 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="2"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2671,7 +2930,7 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="5">
     <i>
       <x/>
     </i>
@@ -2680,6 +2939,9 @@
     </i>
     <i>
       <x v="2"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i t="grand">
       <x/>
@@ -2691,7 +2953,7 @@
   <dataFields count="1">
     <dataField name="Contagem de Empresa " fld="6" subtotal="count" baseField="8" baseItem="0"/>
   </dataFields>
-  <chartFormats count="9">
+  <chartFormats count="10">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -2791,6 +3053,18 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="3" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2805,8 +3079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36F0E0E-C45A-441C-AD28-77CAB70BD31B}" name="Tabela1" displayName="Tabela1" ref="A6:J41" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A6:J41" xr:uid="{E36F0E0E-C45A-441C-AD28-77CAB70BD31B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E36F0E0E-C45A-441C-AD28-77CAB70BD31B}" name="Tabela1" displayName="Tabela1" ref="A6:J44" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A6:J44" xr:uid="{E36F0E0E-C45A-441C-AD28-77CAB70BD31B}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{D32E3F2B-284D-4DEF-9886-59AC7758C190}" name="N°" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{0FE10A6D-D926-4D47-B7CC-EF4970BF4E10}" name="Nº do RDC" dataDxfId="8"/>
@@ -3110,54 +3384,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A4B032-BEB0-4195-95B4-6797E4D6572A}">
-  <dimension ref="A3:B7"/>
+  <dimension ref="A3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" s="21" t="s">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="47">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="74">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="47">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="47"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="74"/>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="47">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="74">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3170,24 +3452,24 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="6.7265625" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" customWidth="1"/>
-    <col min="4" max="4" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="51" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="39.7265625" customWidth="1"/>
-    <col min="9" max="9" width="11.7265625" customWidth="1"/>
-    <col min="10" max="10" width="44.1796875" customWidth="1"/>
+    <col min="8" max="8" width="39.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" s="10"/>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -3199,7 +3481,7 @@
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -3211,7 +3493,7 @@
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15">
       <c r="A3" s="10"/>
       <c r="B3" s="10"/>
       <c r="C3" s="10"/>
@@ -3223,10 +3505,10 @@
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:15" s="12" customFormat="1" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:15" s="12" customFormat="1" ht="21">
       <c r="A4" s="13"/>
       <c r="B4" s="13" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C4" s="13"/>
       <c r="D4" s="13"/>
@@ -3237,7 +3519,7 @@
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" s="10"/>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
@@ -3249,39 +3531,39 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
     </row>
-    <row r="6" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="43.15">
       <c r="A6" s="18" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="C6" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>8</v>
-      </c>
       <c r="E6" s="18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J6" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -3292,7 +3574,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:15" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="43.15">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -3306,25 +3588,25 @@
         <v>45930</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.9">
       <c r="A9" s="11">
         <v>2</v>
       </c>
@@ -3338,25 +3620,25 @@
         <v>45930</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.9">
       <c r="A10" s="11">
         <v>3</v>
       </c>
@@ -3370,26 +3652,26 @@
         <v>45931</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="28.9">
       <c r="A11" s="11">
         <v>4</v>
       </c>
@@ -3403,25 +3685,25 @@
         <v>45931</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.9">
       <c r="A12" s="11">
         <v>5</v>
       </c>
@@ -3435,25 +3717,25 @@
         <v>45931</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="I12" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.9">
       <c r="A13" s="11">
         <v>6</v>
       </c>
@@ -3467,30 +3749,30 @@
         <v>45931</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.9">
       <c r="A14" s="11">
         <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4">
         <v>45869</v>
@@ -3499,30 +3781,30 @@
         <v>45929</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="74.45" customHeight="1">
       <c r="A15" s="11">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>45869</v>
@@ -3531,53 +3813,53 @@
         <v>45929</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="212.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="409.15" customHeight="1">
+      <c r="A16" s="31">
         <v>9</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="37">
+      <c r="C16" s="33">
         <v>45874</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="33"/>
+      <c r="E16" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="38"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="207" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="207" customHeight="1">
       <c r="A17" s="11">
         <v>10</v>
       </c>
@@ -3591,30 +3873,30 @@
         <v>45929</v>
       </c>
       <c r="E17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="25.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.15" customHeight="1">
       <c r="A18" s="11">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C18" s="4">
         <v>45869</v>
@@ -3623,30 +3905,30 @@
         <v>45929</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36" customHeight="1">
       <c r="A19" s="11">
         <v>12</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C19" s="4">
         <v>45869</v>
@@ -3655,30 +3937,30 @@
         <v>45924</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="25.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="25.9" customHeight="1">
       <c r="A20" s="11">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4">
         <v>45869</v>
@@ -3687,30 +3969,30 @@
         <v>45924</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="157.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="157.15" customHeight="1">
       <c r="A21" s="11">
         <v>14</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C21" s="4">
         <v>45869</v>
@@ -3719,30 +4001,30 @@
         <v>45944</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="61.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="61.15" customHeight="1">
       <c r="A22" s="11">
         <v>15</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4">
         <v>45909</v>
@@ -3751,30 +4033,30 @@
         <v>45923</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="48.65" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="48.6" customHeight="1">
       <c r="A23" s="11">
         <v>16</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C23" s="4">
         <v>45909</v>
@@ -3783,30 +4065,30 @@
         <v>45923</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="55.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="55.15" customHeight="1">
       <c r="A24" s="11">
         <v>17</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C24" s="4">
         <v>45909</v>
@@ -3815,30 +4097,30 @@
         <v>45923</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="I24" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="163.15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="163.15" customHeight="1">
       <c r="A25" s="11">
         <v>18</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C25" s="4">
         <v>45912</v>
@@ -3847,58 +4129,58 @@
         <v>45954</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="11">
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4">
         <v>45912</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="48" customHeight="1">
       <c r="A27" s="11">
         <v>20</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C27" s="4">
         <v>45912</v>
@@ -3907,30 +4189,30 @@
         <v>45932</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="43.15">
       <c r="A28" s="11">
         <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C28" s="4">
         <v>45915</v>
@@ -3939,30 +4221,30 @@
         <v>45932</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="45" customHeight="1">
       <c r="A29" s="11">
         <v>22</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C29" s="4">
         <v>45915</v>
@@ -3971,30 +4253,30 @@
         <v>45932</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="26">
         <v>23</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>51</v>
+    </row>
+    <row r="30" spans="1:10" ht="38.450000000000003" customHeight="1">
+      <c r="A30" s="24">
+        <v>23</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="C30" s="4">
         <v>45915</v>
@@ -4003,146 +4285,146 @@
         <v>45932</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="328.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="397.9" customHeight="1">
+      <c r="A31" s="31">
         <v>24</v>
       </c>
-      <c r="B31" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="37">
+      <c r="B31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="33">
         <v>45915</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="35"/>
+      <c r="I31" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J31" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="408.6" customHeight="1">
+      <c r="A32" s="31">
+        <v>25</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="33">
+        <v>45936</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="G32" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="32.450000000000003" customHeight="1">
+      <c r="A33" s="24">
+        <v>26</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="27">
+        <v>45936</v>
+      </c>
+      <c r="D33" s="27">
+        <v>45933</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J33" s="30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="71.45" customHeight="1">
+      <c r="A34" s="39">
+        <v>27</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="41">
+        <v>45936</v>
+      </c>
+      <c r="D34" s="42"/>
+      <c r="E34" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G31" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="367.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="35">
-        <v>25</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="37">
-        <v>45936</v>
-      </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G32" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="I32" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="26">
-        <v>26</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="29">
-        <v>45936</v>
-      </c>
-      <c r="D33" s="29">
-        <v>45933</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="28"/>
-      <c r="I33" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35">
-        <v>27</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="37">
-        <v>45936</v>
-      </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="34"/>
-      <c r="I34" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="F34" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="42"/>
+      <c r="I34" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="28.9">
       <c r="A35" s="11">
         <v>28</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C35" s="4">
         <v>45936</v>
@@ -4151,30 +4433,30 @@
         <v>45946</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J35" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="250.9" customHeight="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="250.9" customHeight="1">
       <c r="A36" s="11">
         <v>29</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C36" s="4">
         <v>45936</v>
@@ -4183,144 +4465,270 @@
         <v>45944</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J36" s="16" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="86.45">
+      <c r="A37" s="39">
         <v>30</v>
       </c>
-      <c r="B37" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C37" s="37">
+      <c r="B37" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="41">
         <v>45967</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G37" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I37" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="86.45">
+      <c r="A38" s="39">
+        <v>31</v>
+      </c>
+      <c r="B38" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" s="42" t="s">
+      <c r="C38" s="41">
+        <v>45967</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G38" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="216">
+      <c r="A39" s="39">
         <v>32</v>
       </c>
-      <c r="J37" s="44" t="s">
+      <c r="B39" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" s="49">
+        <v>45974</v>
+      </c>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="47" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A38" s="35">
-        <v>31</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="C38" s="37">
-        <v>45967</v>
-      </c>
-      <c r="D38" s="34"/>
-      <c r="E38" s="42" t="s">
+      <c r="G39" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="F38" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G38" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" s="44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="217.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="35">
-        <v>32</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="C39" s="45">
-        <v>45974</v>
-      </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="G39" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="35">
+      <c r="I39" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="331.15">
+      <c r="A40" s="24">
         <v>33</v>
       </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="46"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
+      <c r="B40" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="50">
+        <v>46051</v>
+      </c>
+      <c r="D40" s="27">
+        <v>46050</v>
+      </c>
+      <c r="E40" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I40" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="259.14999999999998">
+      <c r="A41" s="55">
         <v>34</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="52" spans="10:10" x14ac:dyDescent="0.35">
-      <c r="J52" s="25"/>
+      <c r="B41" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="61">
+        <v>46051</v>
+      </c>
+      <c r="D41" s="62">
+        <v>46050</v>
+      </c>
+      <c r="E41" s="66" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="G41" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="J41" s="63" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="158.44999999999999">
+      <c r="A42" s="24">
+        <v>35</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="50">
+        <v>46051</v>
+      </c>
+      <c r="D42" s="50">
+        <v>46050</v>
+      </c>
+      <c r="E42" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="I42" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="71" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="43.15">
+      <c r="A43" s="56">
+        <v>36</v>
+      </c>
+      <c r="B43" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="62">
+        <v>46051</v>
+      </c>
+      <c r="D43" s="62">
+        <v>46057</v>
+      </c>
+      <c r="E43" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="G43" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="J43" s="64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="57.6">
+      <c r="A44" s="31">
+        <v>37</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="67">
+        <v>46051</v>
+      </c>
+      <c r="D44" s="68"/>
+      <c r="E44" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="68"/>
+      <c r="I44" s="69" t="s">
+        <v>114</v>
+      </c>
+      <c r="J44" s="73" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="10:10">
+      <c r="J52" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/documents/Controle de relatórios de campo.xlsx
+++ b/assets/documents/Controle de relatórios de campo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\OneDrive\Área de Trabalho\Apresentação Reunião 25-02-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{5A51A9D2-CCA3-4592-883D-03B2345FE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{409D8606-FB0D-449B-9EB2-8A5ABF238456}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5A51A9D2-CCA3-4592-883D-03B2345FE6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44733B08-C528-421D-AB5B-6C0837ED22F5}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="123" r:id="rId3"/>
+    <pivotCache cacheId="11354" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2390,7 +2390,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Excel Services" refreshedDate="46078.617230324075" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{3C5178B2-6A6A-4283-A2D5-6FDAE0FD8710}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Excel Services" refreshedDate="46078.623361342594" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="38" xr:uid="{3C5178B2-6A6A-4283-A2D5-6FDAE0FD8710}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -2903,7 +2903,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2EDEC7-BA6B-4760-A9D2-9A811729C344}" name="Tabela dinâmica2" cacheId="123" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FB2EDEC7-BA6B-4760-A9D2-9A811729C344}" name="Tabela dinâmica2" cacheId="11354" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField showAll="0"/>
